--- a/API_Testing/SaveResponse/response.xlsx
+++ b/API_Testing/SaveResponse/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham Verma\git\api-testing\API_Testing\SaveResponse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B69AD7-0922-4BF7-B176-BA18A181C549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB38F7AA-94C0-486A-9E05-DF82C7A0E5F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>2</t>
+    <t>{
+  "id": 2,
+  "title": "Demo2",
+  "author": "Shubham2"
+}</t>
   </si>
   <si>
     <t>{
-  "id": 2,
+  "id": 1,
+  "title": "Demo2",
+  "author": "Shubham2"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "id": 3,
+  "title": "Demo2",
+  "author": "Shubham2"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "id": 4,
   "title": "Demo2",
   "author": "Shubham2"
 }</t>
@@ -65,8 +83,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,42 +407,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+    <row r="4" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+    <row r="5" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
